--- a/New-ID-5th-Settelment(Did'tSendYet).xlsx
+++ b/New-ID-5th-Settelment(Did'tSendYet).xlsx
@@ -460,27 +460,54 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -493,54 +520,7 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1409,7 +1389,7 @@
   <dimension ref="B1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>

--- a/New-ID-5th-Settelment(Did'tSendYet).xlsx
+++ b/New-ID-5th-Settelment(Did'tSendYet).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -75,6 +75,33 @@
   </si>
   <si>
     <t>Nurhan Elkhateib</t>
+  </si>
+  <si>
+    <t>النافورة</t>
+  </si>
+  <si>
+    <t>م - المقطم</t>
+  </si>
+  <si>
+    <t>عفراء حاتم</t>
+  </si>
+  <si>
+    <t>1121009457 // 249964844267 WPP</t>
+  </si>
+  <si>
+    <t>Afraa Hatim</t>
+  </si>
+  <si>
+    <t>ولي العهد</t>
+  </si>
+  <si>
+    <t>حدائق القبة</t>
+  </si>
+  <si>
+    <t>منة الله مجدي</t>
+  </si>
+  <si>
+    <t>Mennat Allah Magdy</t>
   </si>
 </sst>
 </file>
@@ -494,7 +521,9 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -507,7 +536,9 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -520,7 +551,9 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1389,7 +1422,7 @@
   <dimension ref="B1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
@@ -1442,41 +1475,65 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" ht="15.25" spans="2:7">
-      <c r="B3" s="7">
+    <row r="3" spans="2:7">
+      <c r="B3" s="4">
         <v>10332553</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="B4" s="4">
+        <v>10333437</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" ht="15.25" spans="2:7">
+      <c r="B5" s="7">
+        <v>10333354</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1026846805</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="10"/>

--- a/New-ID-5th-Settelment(Did'tSendYet).xlsx
+++ b/New-ID-5th-Settelment(Did'tSendYet).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
@@ -102,6 +102,18 @@
   </si>
   <si>
     <t>Mennat Allah Magdy</t>
+  </si>
+  <si>
+    <t>المحكمة</t>
+  </si>
+  <si>
+    <t>الزيتون و مصر الجديدة</t>
+  </si>
+  <si>
+    <t>مصطفى علاء</t>
+  </si>
+  <si>
+    <t>Mostafa Alaa</t>
   </si>
 </sst>
 </file>
@@ -1422,7 +1434,7 @@
   <dimension ref="B1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A6" sqref="$A6:$XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
@@ -1536,12 +1548,24 @@
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
+      <c r="B6" s="10">
+        <v>10333396</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="10">
+        <v>1060459705</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="10"/>

--- a/New-ID-5th-Settelment(Did'tSendYet).xlsx
+++ b/New-ID-5th-Settelment(Did'tSendYet).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>ID</t>
   </si>
@@ -114,6 +114,195 @@
   </si>
   <si>
     <t>Mostafa Alaa</t>
+  </si>
+  <si>
+    <t>الخلفاوي</t>
+  </si>
+  <si>
+    <t>شبرا</t>
+  </si>
+  <si>
+    <t>جون مدحت</t>
+  </si>
+  <si>
+    <t>John Medhat</t>
+  </si>
+  <si>
+    <t>كوبري الدقي</t>
+  </si>
+  <si>
+    <t>المهندسين</t>
+  </si>
+  <si>
+    <t>احمد نبيل</t>
+  </si>
+  <si>
+    <t>1225945969 / 01119986050</t>
+  </si>
+  <si>
+    <t>Ahmed Nabil</t>
+  </si>
+  <si>
+    <t>بوابة 1</t>
+  </si>
+  <si>
+    <t>و - مدينتي</t>
+  </si>
+  <si>
+    <t>طارق عاطف</t>
+  </si>
+  <si>
+    <t>Tarek Atef</t>
+  </si>
+  <si>
+    <t>المريوطيه</t>
+  </si>
+  <si>
+    <t>فيصل</t>
+  </si>
+  <si>
+    <t>مينا كارل</t>
+  </si>
+  <si>
+    <t>Mina Carl</t>
+  </si>
+  <si>
+    <t>كارفور العبور</t>
+  </si>
+  <si>
+    <t>العبور</t>
+  </si>
+  <si>
+    <t>خالد وليد</t>
+  </si>
+  <si>
+    <t>Khaled Waleed</t>
+  </si>
+  <si>
+    <t>الجراج</t>
+  </si>
+  <si>
+    <t>روان سامح</t>
+  </si>
+  <si>
+    <t>Rawan Sameh</t>
+  </si>
+  <si>
+    <t>اكاديمية السادات</t>
+  </si>
+  <si>
+    <t>ي - المعادي</t>
+  </si>
+  <si>
+    <t>شريف سيد</t>
+  </si>
+  <si>
+    <t>Sherif Sayed</t>
+  </si>
+  <si>
+    <t>ميدان المحكمة</t>
+  </si>
+  <si>
+    <t>عبدالرحمن سليمان</t>
+  </si>
+  <si>
+    <t>Abdulrahman Suliman</t>
+  </si>
+  <si>
+    <t>قسم الوايلي</t>
+  </si>
+  <si>
+    <t>العباسية و الضاهر</t>
+  </si>
+  <si>
+    <t>بسنت أحمد سمير</t>
+  </si>
+  <si>
+    <t>Passant Ahmed Samir</t>
+  </si>
+  <si>
+    <t>مريم ابو بكر</t>
+  </si>
+  <si>
+    <t>Mariam Abu Bakr</t>
+  </si>
+  <si>
+    <t>سلم البارون</t>
+  </si>
+  <si>
+    <t>حلوان و زهراء المعادي</t>
+  </si>
+  <si>
+    <t>مهاب علاء</t>
+  </si>
+  <si>
+    <t>Mohab Alaa</t>
+  </si>
+  <si>
+    <t>مستشفى احمد ماهر</t>
+  </si>
+  <si>
+    <t>التحرير</t>
+  </si>
+  <si>
+    <t>مصطفى محمد</t>
+  </si>
+  <si>
+    <t>Mustafa Mohamed</t>
+  </si>
+  <si>
+    <t>بهتيم</t>
+  </si>
+  <si>
+    <t>دائري</t>
+  </si>
+  <si>
+    <t>آية علي</t>
+  </si>
+  <si>
+    <t>Aya Ali</t>
+  </si>
+  <si>
+    <t>احمد مجدي</t>
+  </si>
+  <si>
+    <t>Ahmed Magdy</t>
+  </si>
+  <si>
+    <t>مسجد السلام</t>
+  </si>
+  <si>
+    <t>مدينة نصر</t>
+  </si>
+  <si>
+    <t>ماهر علي دهب</t>
+  </si>
+  <si>
+    <t>1212874368 / 967777756816</t>
+  </si>
+  <si>
+    <t>Maher Ali Dahab</t>
+  </si>
+  <si>
+    <t>ابراهيم بلة</t>
+  </si>
+  <si>
+    <t>1505852821 / 255749772862</t>
+  </si>
+  <si>
+    <t>Ibrahim Balla</t>
+  </si>
+  <si>
+    <t>كشري هند الحي العاشر</t>
+  </si>
+  <si>
+    <t>عائشه محمد</t>
+  </si>
+  <si>
+    <t>1555175582 / 1107578879</t>
+  </si>
+  <si>
+    <t>Aisha Mohammed</t>
   </si>
 </sst>
 </file>
@@ -1434,7 +1623,7 @@
   <dimension ref="B1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="$A6:$XFD6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
@@ -1443,7 +1632,7 @@
     <col min="3" max="3" width="27.1818181818182" customWidth="1"/>
     <col min="4" max="4" width="19.1818181818182" customWidth="1"/>
     <col min="5" max="5" width="17.3636363636364" customWidth="1"/>
-    <col min="6" max="6" width="27.1818181818182" customWidth="1"/>
+    <col min="6" max="6" width="32.9090909090909" customWidth="1"/>
     <col min="7" max="8" width="29.5454545454545" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1527,205 +1716,445 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" ht="15.25" spans="2:7">
-      <c r="B5" s="7">
+    <row r="5" spans="2:7">
+      <c r="B5" s="4">
         <v>10333354</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="5">
         <v>1026846805</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="10">
+      <c r="B6" s="4">
         <v>10333396</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="5">
         <v>1060459705</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+      <c r="B7" s="4">
+        <v>10331412</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1281804393</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
+      <c r="B8" s="4">
+        <v>10331413</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
+      <c r="B9" s="4">
+        <v>10331414</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1117144455</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
+      <c r="B10" s="4">
+        <v>10322712</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1152621423</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
+      <c r="B11" s="4">
+        <v>10331426</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1124220159</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
+      <c r="B12" s="4">
+        <v>10331422</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1110071185</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
+      <c r="B13" s="4">
+        <v>10331421</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1013030118</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
+      <c r="B14" s="4">
+        <v>10333437</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
+      <c r="B15" s="4">
+        <v>10333354</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1026846805</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
+      <c r="B16" s="4">
+        <v>10333396</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1060459705</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
+      <c r="B17" s="4">
+        <v>10333385</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1025613339</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
+      <c r="B18" s="4">
+        <v>10333416</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1270058439</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
+      <c r="B19" s="4">
+        <v>10333417</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1019687588</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
+      <c r="B20" s="4">
+        <v>10333426</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1097696568</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
+      <c r="B21" s="4">
+        <v>10333432</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1091247732</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
+      <c r="B22" s="4">
+        <v>10333433</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="5">
+        <v>1004788915</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
+      <c r="B23" s="4">
+        <v>10333434</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1032409151</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
+      <c r="B24" s="4">
+        <v>10333435</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
+      <c r="B25" s="4">
+        <v>10333439</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" ht="15.25" spans="2:7">
+      <c r="B26" s="7">
+        <v>10333436</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="10"/>
